--- a/sources/Lab5/testing-lab2.xlsx
+++ b/sources/Lab5/testing-lab2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t xml:space="preserve">Аннотация </t>
   </si>
@@ -81,7 +81,8 @@
     <t>Фактический результат</t>
   </si>
   <si>
-    <t>Успех всех этапов</t>
+    <t>Запуск приложения с
+ отсутсвием ошибок</t>
   </si>
   <si>
     <t>Элементы внутри она
@@ -101,7 +102,7 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>succes</t>
+    <t>success</t>
   </si>
   <si>
     <t>failed</t>
@@ -150,10 +151,15 @@
 приложения</t>
   </si>
   <si>
-    <t>Постусловие</t>
+    <t>Коректная работа
+ кнопки "Вход"</t>
   </si>
   <si>
-    <t>Закрыть окно приложения</t>
+    <t>Коректная работа
+регистрации</t>
+  </si>
+  <si>
+    <t>Постусловие</t>
   </si>
   <si>
     <t>Тест кейс #3</t>
@@ -162,19 +168,23 @@
     <t>Тест кейс #4</t>
   </si>
   <si>
-    <t>Работа кнопок</t>
+    <t>Работа кнопки "Вход"</t>
   </si>
   <si>
     <t>Регистрация</t>
   </si>
   <si>
     <t>Проверить корректность и работоспособность
-кнопок внутри приложения</t>
+кнопки "Вход" внутри приложения</t>
   </si>
   <si>
     <t>Требуется проверить работоспособность
 регистрации внутри приложения и корректность
  её работы.</t>
+  </si>
+  <si>
+    <t>Коректная работа
+ авторизации</t>
   </si>
   <si>
     <t>Требуется запустить execute-файл и нажать на
@@ -190,42 +200,36 @@
     <t>Ввести данный логин в textbox "Логин"</t>
   </si>
   <si>
-    <t>При открытии окна: Закрыть его и диалоговое
-окно.</t>
+    <t>Закрыть появившееся окно Авторизации</t>
   </si>
   <si>
     <t>Ввести данный пароль в textbox "Пароль"</t>
   </si>
   <si>
-    <t>Нажатие на кнопку "Регистрация"</t>
+    <t>Закрыть диалоговое окно с текстом "Неуспешно"</t>
   </si>
   <si>
-    <t>Ввести данный пароль в textbox
- "Повторите пароль"</t>
+    <t>Ввести данный пароль в textbox "Повторите пароль"</t>
   </si>
   <si>
     <t>Нажать на кнопку "Применить"</t>
   </si>
   <si>
-    <t>Прочесть текст в диалоговом окне и закрыть его</t>
+    <t>Закрыть диалоговое окно с текстом "Успешно"</t>
   </si>
   <si>
     <t>Повторить первые 4 этапа с теми же данными</t>
   </si>
   <si>
-    <t>При нажатии на кнопку "Вход" - открытие окна
-"LoginForm"
-При нажатии на кнопку "Регистрация" - 
-открытие окна "Registration"</t>
+    <t>Корректная работа указанной кнопки</t>
   </si>
   <si>
-    <t>Все компоненты формы должны работать и 
-откликаться на взаимодействие с пользователем
-При первом вводе текст диалогового окна "Успешно"
-При втором вводе - "Неуспешно"</t>
+    <t>Корректная регистрация пользователя с введёнными
+тестовыми данными и корректный отказ на 
+регистрацию аналогичного пользователя</t>
   </si>
   <si>
-    <t>Закрыть все оставшиеся окна в приложении.</t>
+    <t>В базе данных сохранится пользователь route.</t>
   </si>
   <si>
     <t>Тест кейс #5</t>
@@ -244,8 +248,8 @@
   </si>
   <si>
     <t>Все компоненты формы должны работать и 
-откликаться на взаимодействие с пользователем
-При вводе текст диалогового окна -  "Успешно"</t>
+откликаться при взаимодействие с пользователем
+Соответствие всех этапов с их описаниями</t>
   </si>
 </sst>
 </file>
@@ -283,7 +287,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border/>
     <border>
       <left style="medium">
@@ -478,25 +482,11 @@
         <color rgb="FF000000"/>
       </right>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -511,13 +501,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,7 +517,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -544,23 +534,17 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -570,6 +554,9 @@
     </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -578,6 +565,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -588,23 +578,11 @@
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +1196,7 @@
       <c r="K12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="1"/>
@@ -1255,14 +1233,14 @@
       <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="1"/>
@@ -1299,14 +1277,14 @@
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="1"/>
@@ -1326,25 +1304,25 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1362,13 +1340,13 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="1"/>
@@ -1398,27 +1376,27 @@
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="20" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>2.0</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="14">
         <v>3.0</v>
       </c>
       <c r="M17" s="1"/>
@@ -1456,14 +1434,14 @@
         <v>19</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1483,30 +1461,30 @@
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>42</v>
+      <c r="C19" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>42</v>
+      <c r="F19" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="1"/>
@@ -1543,14 +1521,14 @@
       <c r="H20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="1"/>
@@ -1576,11 +1554,11 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1604,10 +1582,11 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="29"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1626,20 +1605,20 @@
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="1"/>
       <c r="E23" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1675,9 +1654,9 @@
         <v>11</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1698,26 +1677,26 @@
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>45</v>
+      <c r="C25" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="14">
         <v>4.0</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1738,26 +1717,26 @@
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>47</v>
+      <c r="C26" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1786,13 +1765,13 @@
         <v>22</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="16" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="1"/>
@@ -1826,13 +1805,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J28" s="1"/>
@@ -1855,21 +1834,21 @@
     </row>
     <row r="29" ht="33.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>51</v>
+      <c r="C29" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="29"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1891,14 +1870,14 @@
     </row>
     <row r="30" ht="28.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1923,14 +1902,14 @@
     </row>
     <row r="31" ht="31.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1955,12 +1934,12 @@
     </row>
     <row r="32" ht="31.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="32" t="s">
-        <v>57</v>
+      <c r="E32" s="23"/>
+      <c r="F32" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1985,12 +1964,12 @@
     </row>
     <row r="33" ht="31.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="30"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="30" t="s">
-        <v>58</v>
+      <c r="E33" s="23"/>
+      <c r="F33" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2015,12 +1994,12 @@
     </row>
     <row r="34" ht="31.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="30"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="32" t="s">
-        <v>59</v>
+      <c r="E34" s="23"/>
+      <c r="F34" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2045,12 +2024,12 @@
     </row>
     <row r="35" ht="31.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="30"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2073,20 +2052,20 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="56.25" customHeight="1">
+    <row r="36" ht="42.0" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>60</v>
+      <c r="C36" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>61</v>
+      <c r="F36" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2112,17 +2091,17 @@
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>62</v>
+      <c r="C37" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>62</v>
+      <c r="F37" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2239,12 +2218,13 @@
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="33" t="s">
-        <v>63</v>
+      <c r="B41" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="34"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2275,8 +2255,8 @@
         <v>4.0</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2304,11 +2284,11 @@
         <v>12</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2336,11 +2316,11 @@
         <v>16</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="36"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2362,17 +2342,17 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="19.5" customHeight="1">
+    <row r="45" ht="29.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2400,11 +2380,11 @@
         <v>28</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="36"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2428,15 +2408,15 @@
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="33"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2460,13 +2440,13 @@
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="36"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2490,13 +2470,13 @@
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="32" t="s">
-        <v>57</v>
+      <c r="B49" s="23"/>
+      <c r="C49" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="36"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2520,13 +2500,13 @@
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="37" t="s">
-        <v>58</v>
+      <c r="B50" s="24"/>
+      <c r="C50" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2554,11 +2534,11 @@
         <v>38</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="36"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2583,14 +2563,14 @@
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>62</v>
+      <c r="C52" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="36"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2621,8 +2601,8 @@
         <v>31</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="38"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -29301,7 +29281,7 @@
       <c r="Z1005" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
@@ -29311,17 +29291,15 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E29:E35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B47:B50"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B47:B50"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
